--- a/medicine/Psychotrope/Warteck/Warteck.xlsx
+++ b/medicine/Psychotrope/Warteck/Warteck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Warteck est une brasserie fondée en 1856 produisant la bière du même nom. Elle appartient désormais au groupe Carlsberg.
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Warteck est fondée en 1856, à Bâle, par Niklaus Emanuel Merian-Seeber (1828-1872) qui fonctionne d'abord comme un débit de boissons[1]. C'est son frère Benjamin qui fournit la bière de sa brasserie.
-Le nom « Warteck » provient de l'expression allemande « die Warte-Ecke », soit le coin d'attente ou secteur d'attente[2].
-Le 8 mai 2012 s'est ouvert le musée Warteck sur l'emplacement du lieu de production[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Warteck est fondée en 1856, à Bâle, par Niklaus Emanuel Merian-Seeber (1828-1872) qui fonctionne d'abord comme un débit de boissons. C'est son frère Benjamin qui fournit la bière de sa brasserie.
+Le nom « Warteck » provient de l'expression allemande « die Warte-Ecke », soit le coin d'attente ou secteur d'attente.
+Le 8 mai 2012 s'est ouvert le musée Warteck sur l'emplacement du lieu de production.
 Warteck appartient depuis 1989 à Feldschlösschen et donc au groupe Carlsberg depuis 2000.
 			Action de la Brasserie zum Warteck en date du 1. Octobre 1889
 			Brasserie Warteck
